--- a/src/Excel/AltaCuentaCTS.xlsx
+++ b/src/Excel/AltaCuentaCTS.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B9FCAE-BBB8-42C6-87E3-16F2E9A50E20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C8344C-9FE9-4BA0-AF29-D6324F6E10A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="1960" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AltaCuentaCTS" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>usuario</t>
   </si>
@@ -84,13 +84,23 @@
     <t/>
   </si>
   <si>
-    <t>5 mar. 2023, 20:00:06</t>
+    <t>6 mar. 2023, 11:50:00</t>
+  </si>
+  <si>
+    <t>AAACT23065N7K30DS</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>6 mar. 2023, 11:55:14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -420,19 +430,19 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.1796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.36328125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.54296875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -490,13 +500,13 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/AltaCuentaCTS.xlsx
+++ b/src/Excel/AltaCuentaCTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C8344C-9FE9-4BA0-AF29-D6324F6E10A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80996724-E549-43E7-A0B3-ECFE64097D9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>usuario</t>
   </si>
@@ -78,22 +78,31 @@
     <t>Fecha</t>
   </si>
   <si>
+    <t>AAACT23065N7K30DS</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>6 mar. 2023, 11:55:14</t>
+  </si>
+  <si>
+    <t>SCIS</t>
+  </si>
+  <si>
+    <t>AAACT2306626WC888</t>
+  </si>
+  <si>
+    <t>7 mar. 2023, 10:09:11</t>
+  </si>
+  <si>
     <t>FAILED</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>6 mar. 2023, 11:50:00</t>
-  </si>
-  <si>
-    <t>AAACT23065N7K30DS</t>
-  </si>
-  <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 11:55:14</t>
+    <t>7 mar. 2023, 10:09:19</t>
   </si>
 </sst>
 </file>
@@ -151,7 +160,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -427,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -441,7 +479,7 @@
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="9.54296875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="23.54296875" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="19.54296875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -500,16 +538,62 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
         <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="PASSED">
+      <formula>NOT(ISERROR(SEARCH("PASSED",J7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="PASSED">
+      <formula>NOT(ISERROR(SEARCH("PASSED",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FAILED">
+      <formula>NOT(ISERROR(SEARCH("FAILED",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>